--- a/templates/Excel/ST4/ST4_Line_setup.xlsx
+++ b/templates/Excel/ST4/ST4_Line_setup.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:AP5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,54 +446,644 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Cap handle Damage CHD</t>
+          <t>Main Pressure_setup</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Main Pressure_Re_Setup</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ATEQ Test Pressure_setup</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ATEQ Test Pressure_Re_setup</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ATEQ Stabilization time_setup</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ATEQ Stabilization time_Re_setup</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>ATEQ Testing time_setup</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ATEQ Testing time_Re_setup</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Laser Marking_setup</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Laser Marking_Re_setup</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Stroke checking of the part before placing into leakage test_setup</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Stroke checking of the part before placing into leakage test_Re_setup</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Leakage Test ICL_setup</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Leakage Test ICL_Re_setup</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>product-characteristics3_setup</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>product-characteristics3_Re_setup</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Know Master Leakage_setup</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Know Master Leakage_Re_setup</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Leakage NOK Master_setup</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Leakage NOK Master_Re_setup</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Without Spring Master (stoke test)_setup</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Without Spring Master (stoke test)_Re_setup</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Stop ring reverse assembly Master stoke test_setup</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Stop ring reverse assembly Master stoke test_Re_setup</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Laser Marking2_setup</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Laser Marking2_Re_setup</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
           <t>Remark</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>QA-Sign</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Engg-Sign</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Laser Marking Improper</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Laser Marking Shifted</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Spring short Length</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Stop Ring Damage/Crack</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Leakage Not Ok(LN3)</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Cap handle came off</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Cap handle Pad Printing Missing</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Spring Struck(SS)</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Fallen Down Particle (FD3)</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Zero Master_setup</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Zero Master_Re_setup</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-02-15T16:15</t>
+          <t>2025-02-06T12:28</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>SHIFT_3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K2" t="n">
+        <v>9</v>
+      </c>
+      <c r="L2" t="n">
+        <v>10</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2</v>
+      </c>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>4</v>
+      </c>
+      <c r="W2" t="n">
+        <v>5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>111</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>222</v>
+      </c>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-02-06T12:31</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SHIFT_2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="n">
+        <v>111</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>222</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>333</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-02-06T12:31</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SHIFT_2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="n">
+        <v>111</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>222</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>333</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-02-06T12:33</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>SHIFT_1</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
